--- a/data/suntran-route-4.xlsx
+++ b/data/suntran-route-4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Route 4" sheetId="2" r:id="rId1"/>
@@ -376,7 +376,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -386,13 +386,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL64"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AJ27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
     <col min="30" max="34" width="9.140625" customWidth="1"/>
     <col min="35" max="35" width="5" customWidth="1"/>
     <col min="36" max="36" width="5" bestFit="1" customWidth="1"/>
@@ -6000,8 +6000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D2, LEN(D2) - 2) &amp; ":" &amp; RIGHT(D2, 2) &amp; " " &amp; E2</f>
+        <f t="shared" ref="F2:F33" si="0" xml:space="preserve"> LEFT(D2, LEN(D2) - 2) &amp; ":" &amp; RIGHT(D2, 2) &amp; " " &amp; E2</f>
         <v>5:20 am</v>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D3, LEN(D3) - 2) &amp; ":" &amp; RIGHT(D3, 2) &amp; " " &amp; E3</f>
+        <f t="shared" si="0"/>
         <v>5:49 am</v>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D4, LEN(D4) - 2) &amp; ":" &amp; RIGHT(D4, 2) &amp; " " &amp; E4</f>
+        <f t="shared" si="0"/>
         <v>6:04 am</v>
       </c>
     </row>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D5, LEN(D5) - 2) &amp; ":" &amp; RIGHT(D5, 2) &amp; " " &amp; E5</f>
+        <f t="shared" si="0"/>
         <v>6:19 am</v>
       </c>
     </row>
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D6, LEN(D6) - 2) &amp; ":" &amp; RIGHT(D6, 2) &amp; " " &amp; E6</f>
+        <f t="shared" si="0"/>
         <v>6:34 am</v>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D7, LEN(D7) - 2) &amp; ":" &amp; RIGHT(D7, 2) &amp; " " &amp; E7</f>
+        <f t="shared" si="0"/>
         <v>6:46 am</v>
       </c>
     </row>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D8, LEN(D8) - 2) &amp; ":" &amp; RIGHT(D8, 2) &amp; " " &amp; E8</f>
+        <f t="shared" si="0"/>
         <v>7:01 am</v>
       </c>
     </row>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D9, LEN(D9) - 2) &amp; ":" &amp; RIGHT(D9, 2) &amp; " " &amp; E9</f>
+        <f t="shared" si="0"/>
         <v>7:16 am</v>
       </c>
     </row>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D10, LEN(D10) - 2) &amp; ":" &amp; RIGHT(D10, 2) &amp; " " &amp; E10</f>
+        <f t="shared" si="0"/>
         <v>7:31 am</v>
       </c>
     </row>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D11, LEN(D11) - 2) &amp; ":" &amp; RIGHT(D11, 2) &amp; " " &amp; E11</f>
+        <f t="shared" si="0"/>
         <v>7:46 am</v>
       </c>
     </row>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D12, LEN(D12) - 2) &amp; ":" &amp; RIGHT(D12, 2) &amp; " " &amp; E12</f>
+        <f t="shared" si="0"/>
         <v>8:01 am</v>
       </c>
     </row>
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D13, LEN(D13) - 2) &amp; ":" &amp; RIGHT(D13, 2) &amp; " " &amp; E13</f>
+        <f t="shared" si="0"/>
         <v>8:16 am</v>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D14, LEN(D14) - 2) &amp; ":" &amp; RIGHT(D14, 2) &amp; " " &amp; E14</f>
+        <f t="shared" si="0"/>
         <v>8:31 am</v>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D15, LEN(D15) - 2) &amp; ":" &amp; RIGHT(D15, 2) &amp; " " &amp; E15</f>
+        <f t="shared" si="0"/>
         <v>8:46 am</v>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D16, LEN(D16) - 2) &amp; ":" &amp; RIGHT(D16, 2) &amp; " " &amp; E16</f>
+        <f t="shared" si="0"/>
         <v>9:01 am</v>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D17, LEN(D17) - 2) &amp; ":" &amp; RIGHT(D17, 2) &amp; " " &amp; E17</f>
+        <f t="shared" si="0"/>
         <v>9:16 am</v>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D18, LEN(D18) - 2) &amp; ":" &amp; RIGHT(D18, 2) &amp; " " &amp; E18</f>
+        <f t="shared" si="0"/>
         <v>9:31 am</v>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D19, LEN(D19) - 2) &amp; ":" &amp; RIGHT(D19, 2) &amp; " " &amp; E19</f>
+        <f t="shared" si="0"/>
         <v>9:46 am</v>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D20, LEN(D20) - 2) &amp; ":" &amp; RIGHT(D20, 2) &amp; " " &amp; E20</f>
+        <f t="shared" si="0"/>
         <v>10:01 am</v>
       </c>
     </row>
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D21, LEN(D21) - 2) &amp; ":" &amp; RIGHT(D21, 2) &amp; " " &amp; E21</f>
+        <f t="shared" si="0"/>
         <v>10:16 am</v>
       </c>
     </row>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D22, LEN(D22) - 2) &amp; ":" &amp; RIGHT(D22, 2) &amp; " " &amp; E22</f>
+        <f t="shared" si="0"/>
         <v>10:31 am</v>
       </c>
     </row>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D23, LEN(D23) - 2) &amp; ":" &amp; RIGHT(D23, 2) &amp; " " &amp; E23</f>
+        <f t="shared" si="0"/>
         <v>10:46 am</v>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D24, LEN(D24) - 2) &amp; ":" &amp; RIGHT(D24, 2) &amp; " " &amp; E24</f>
+        <f t="shared" si="0"/>
         <v>11:01 am</v>
       </c>
     </row>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D25, LEN(D25) - 2) &amp; ":" &amp; RIGHT(D25, 2) &amp; " " &amp; E25</f>
+        <f t="shared" si="0"/>
         <v>11:16 am</v>
       </c>
     </row>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D26, LEN(D26) - 2) &amp; ":" &amp; RIGHT(D26, 2) &amp; " " &amp; E26</f>
+        <f t="shared" si="0"/>
         <v>11:31 am</v>
       </c>
     </row>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D27, LEN(D27) - 2) &amp; ":" &amp; RIGHT(D27, 2) &amp; " " &amp; E27</f>
+        <f t="shared" si="0"/>
         <v>11:46 am</v>
       </c>
     </row>
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D28, LEN(D28) - 2) &amp; ":" &amp; RIGHT(D28, 2) &amp; " " &amp; E28</f>
+        <f t="shared" si="0"/>
         <v>12:01 pm</v>
       </c>
     </row>
@@ -6610,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D29, LEN(D29) - 2) &amp; ":" &amp; RIGHT(D29, 2) &amp; " " &amp; E29</f>
+        <f t="shared" si="0"/>
         <v>12:16 pm</v>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D30, LEN(D30) - 2) &amp; ":" &amp; RIGHT(D30, 2) &amp; " " &amp; E30</f>
+        <f t="shared" si="0"/>
         <v>12:31 pm</v>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D31, LEN(D31) - 2) &amp; ":" &amp; RIGHT(D31, 2) &amp; " " &amp; E31</f>
+        <f t="shared" si="0"/>
         <v>12:46 pm</v>
       </c>
     </row>
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D32, LEN(D32) - 2) &amp; ":" &amp; RIGHT(D32, 2) &amp; " " &amp; E32</f>
+        <f t="shared" si="0"/>
         <v>1:01 pm</v>
       </c>
     </row>
@@ -6694,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D33, LEN(D33) - 2) &amp; ":" &amp; RIGHT(D33, 2) &amp; " " &amp; E33</f>
+        <f t="shared" si="0"/>
         <v>1:16 pm</v>
       </c>
     </row>
@@ -6715,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D34, LEN(D34) - 2) &amp; ":" &amp; RIGHT(D34, 2) &amp; " " &amp; E34</f>
+        <f t="shared" ref="F34:F65" si="1" xml:space="preserve"> LEFT(D34, LEN(D34) - 2) &amp; ":" &amp; RIGHT(D34, 2) &amp; " " &amp; E34</f>
         <v>1:31 pm</v>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D35, LEN(D35) - 2) &amp; ":" &amp; RIGHT(D35, 2) &amp; " " &amp; E35</f>
+        <f t="shared" si="1"/>
         <v>1:46 pm</v>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D36, LEN(D36) - 2) &amp; ":" &amp; RIGHT(D36, 2) &amp; " " &amp; E36</f>
+        <f t="shared" si="1"/>
         <v>2:01 pm</v>
       </c>
     </row>
@@ -6778,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D37, LEN(D37) - 2) &amp; ":" &amp; RIGHT(D37, 2) &amp; " " &amp; E37</f>
+        <f t="shared" si="1"/>
         <v>2:16 pm</v>
       </c>
     </row>
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D38, LEN(D38) - 2) &amp; ":" &amp; RIGHT(D38, 2) &amp; " " &amp; E38</f>
+        <f t="shared" si="1"/>
         <v>2:31 pm</v>
       </c>
     </row>
@@ -6820,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D39, LEN(D39) - 2) &amp; ":" &amp; RIGHT(D39, 2) &amp; " " &amp; E39</f>
+        <f t="shared" si="1"/>
         <v>2:46 pm</v>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D40, LEN(D40) - 2) &amp; ":" &amp; RIGHT(D40, 2) &amp; " " &amp; E40</f>
+        <f t="shared" si="1"/>
         <v>3:01 pm</v>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D41, LEN(D41) - 2) &amp; ":" &amp; RIGHT(D41, 2) &amp; " " &amp; E41</f>
+        <f t="shared" si="1"/>
         <v>3:16 pm</v>
       </c>
     </row>
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D42, LEN(D42) - 2) &amp; ":" &amp; RIGHT(D42, 2) &amp; " " &amp; E42</f>
+        <f t="shared" si="1"/>
         <v>3:31 pm</v>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D43, LEN(D43) - 2) &amp; ":" &amp; RIGHT(D43, 2) &amp; " " &amp; E43</f>
+        <f t="shared" si="1"/>
         <v>3:46 pm</v>
       </c>
     </row>
@@ -6925,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D44, LEN(D44) - 2) &amp; ":" &amp; RIGHT(D44, 2) &amp; " " &amp; E44</f>
+        <f t="shared" si="1"/>
         <v>4:01 pm</v>
       </c>
     </row>
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D45, LEN(D45) - 2) &amp; ":" &amp; RIGHT(D45, 2) &amp; " " &amp; E45</f>
+        <f t="shared" si="1"/>
         <v>4:16 pm</v>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D46, LEN(D46) - 2) &amp; ":" &amp; RIGHT(D46, 2) &amp; " " &amp; E46</f>
+        <f t="shared" si="1"/>
         <v>4:31 pm</v>
       </c>
     </row>
@@ -6988,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D47, LEN(D47) - 2) &amp; ":" &amp; RIGHT(D47, 2) &amp; " " &amp; E47</f>
+        <f t="shared" si="1"/>
         <v>4:46 pm</v>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D48, LEN(D48) - 2) &amp; ":" &amp; RIGHT(D48, 2) &amp; " " &amp; E48</f>
+        <f t="shared" si="1"/>
         <v>5:01 pm</v>
       </c>
     </row>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D49, LEN(D49) - 2) &amp; ":" &amp; RIGHT(D49, 2) &amp; " " &amp; E49</f>
+        <f t="shared" si="1"/>
         <v>5:16 pm</v>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D50, LEN(D50) - 2) &amp; ":" &amp; RIGHT(D50, 2) &amp; " " &amp; E50</f>
+        <f t="shared" si="1"/>
         <v>5:31 pm</v>
       </c>
     </row>
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D51, LEN(D51) - 2) &amp; ":" &amp; RIGHT(D51, 2) &amp; " " &amp; E51</f>
+        <f t="shared" si="1"/>
         <v>5:48 pm</v>
       </c>
     </row>
@@ -7093,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D52, LEN(D52) - 2) &amp; ":" &amp; RIGHT(D52, 2) &amp; " " &amp; E52</f>
+        <f t="shared" si="1"/>
         <v>6:03 pm</v>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D53, LEN(D53) - 2) &amp; ":" &amp; RIGHT(D53, 2) &amp; " " &amp; E53</f>
+        <f t="shared" si="1"/>
         <v>6:18 pm</v>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D54, LEN(D54) - 2) &amp; ":" &amp; RIGHT(D54, 2) &amp; " " &amp; E54</f>
+        <f t="shared" si="1"/>
         <v>6:33 pm</v>
       </c>
     </row>
@@ -7156,7 +7156,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D55, LEN(D55) - 2) &amp; ":" &amp; RIGHT(D55, 2) &amp; " " &amp; E55</f>
+        <f t="shared" si="1"/>
         <v>7:05 pm</v>
       </c>
     </row>
@@ -7177,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D56, LEN(D56) - 2) &amp; ":" &amp; RIGHT(D56, 2) &amp; " " &amp; E56</f>
+        <f t="shared" si="1"/>
         <v>7:35 pm</v>
       </c>
     </row>
@@ -7198,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D57, LEN(D57) - 2) &amp; ":" &amp; RIGHT(D57, 2) &amp; " " &amp; E57</f>
+        <f t="shared" si="1"/>
         <v>8:05 pm</v>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D58, LEN(D58) - 2) &amp; ":" &amp; RIGHT(D58, 2) &amp; " " &amp; E58</f>
+        <f t="shared" si="1"/>
         <v>8:35 pm</v>
       </c>
     </row>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D59, LEN(D59) - 2) &amp; ":" &amp; RIGHT(D59, 2) &amp; " " &amp; E59</f>
+        <f t="shared" si="1"/>
         <v>9:05 pm</v>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D60, LEN(D60) - 2) &amp; ":" &amp; RIGHT(D60, 2) &amp; " " &amp; E60</f>
+        <f t="shared" si="1"/>
         <v>9:35 pm</v>
       </c>
     </row>
@@ -7282,7 +7282,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D61, LEN(D61) - 2) &amp; ":" &amp; RIGHT(D61, 2) &amp; " " &amp; E61</f>
+        <f t="shared" si="1"/>
         <v>10:05 pm</v>
       </c>
     </row>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D62, LEN(D62) - 2) &amp; ":" &amp; RIGHT(D62, 2) &amp; " " &amp; E62</f>
+        <f t="shared" si="1"/>
         <v>10:35 pm</v>
       </c>
     </row>
@@ -7324,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D63, LEN(D63) - 2) &amp; ":" &amp; RIGHT(D63, 2) &amp; " " &amp; E63</f>
+        <f t="shared" si="1"/>
         <v>11:05 pm</v>
       </c>
     </row>
@@ -7345,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f xml:space="preserve"> LEFT(D64, LEN(D64) - 2) &amp; ":" &amp; RIGHT(D64, 2) &amp; " " &amp; E64</f>
+        <f t="shared" si="1"/>
         <v>11:35 pm</v>
       </c>
     </row>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" ref="F66:F125" si="0">LEFT(D66 - 2) &amp; ":" &amp; RIGHT(D66, 2) &amp; " " &amp; E66</f>
+        <f t="shared" ref="F66:F125" si="2">LEFT(D66 - 2) &amp; ":" &amp; RIGHT(D66, 2) &amp; " " &amp; E66</f>
         <v>6:38 am</v>
       </c>
     </row>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6:53 am</v>
       </c>
     </row>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7:08 am</v>
       </c>
     </row>
@@ -7450,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7:27 am</v>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7:42 am</v>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7:57 am</v>
       </c>
     </row>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8:12 am</v>
       </c>
     </row>
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8:27 am</v>
       </c>
     </row>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8:42 am</v>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8:57 am</v>
       </c>
     </row>
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9:12 am</v>
       </c>
     </row>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9:27 am</v>
       </c>
     </row>
@@ -7639,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9:42 am</v>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9:57 am</v>
       </c>
     </row>
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:12 am</v>
       </c>
     </row>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:27 am</v>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:42 am</v>
       </c>
     </row>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:57 am</v>
       </c>
     </row>
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:12 am</v>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:27 am</v>
       </c>
     </row>
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:42 am</v>
       </c>
     </row>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:57 am</v>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:12 pm</v>
       </c>
     </row>
@@ -7870,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:27 pm</v>
       </c>
     </row>
@@ -7891,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:42 pm</v>
       </c>
     </row>
@@ -7912,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:57 pm</v>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:12 pm</v>
       </c>
     </row>
@@ -7954,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:27 pm</v>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:42 pm</v>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:57 pm</v>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2:12 pm</v>
       </c>
     </row>
@@ -8038,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2:27 pm</v>
       </c>
     </row>
@@ -8059,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2:42 pm</v>
       </c>
     </row>
@@ -8080,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2:57 pm</v>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3:12 pm</v>
       </c>
     </row>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3:27 pm</v>
       </c>
     </row>
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3:42 pm</v>
       </c>
     </row>
@@ -8164,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3:57 pm</v>
       </c>
     </row>
@@ -8185,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4:12 pm</v>
       </c>
     </row>
@@ -8206,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4:27 pm</v>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4:42 pm</v>
       </c>
     </row>
@@ -8248,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4:57 pm</v>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5:12 pm</v>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5:27 pm</v>
       </c>
     </row>
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5:42 pm</v>
       </c>
     </row>
@@ -8332,7 +8332,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5:57 pm</v>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6:12 pm</v>
       </c>
     </row>
@@ -8374,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6:25 pm</v>
       </c>
     </row>
@@ -8395,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6:40 pm</v>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6:55 pm</v>
       </c>
     </row>
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7:23 pm</v>
       </c>
     </row>
@@ -8458,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7:53 pm</v>
       </c>
     </row>
@@ -8479,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8:23 pm</v>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8:53 pm</v>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9:23 pm</v>
       </c>
     </row>
@@ -8542,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9:53 pm</v>
       </c>
     </row>
@@ -8563,7 +8563,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(D122 - 2) &amp; ":" &amp; RIGHT(D122, 2) &amp; " " &amp; E122</f>
         <v>1:23 pm</v>
       </c>
     </row>
@@ -8584,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:53 pm</v>
       </c>
     </row>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:23 pm</v>
       </c>
     </row>
@@ -8626,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:53 pm</v>
       </c>
     </row>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="F127" s="1" t="str">
-        <f t="shared" ref="F127:F155" si="1">LEFT(D127 - 2) &amp; ":"&amp; RIGHT(D127, 2) &amp; " " &amp; E127</f>
+        <f t="shared" ref="F127:F155" si="3">LEFT(D127 - 2) &amp; ":"&amp; RIGHT(D127, 2) &amp; " " &amp; E127</f>
         <v>7:04 am</v>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="F128" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7:34 am</v>
       </c>
     </row>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8:04 am</v>
       </c>
     </row>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8:34 am</v>
       </c>
     </row>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="F131" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9:02 am</v>
       </c>
     </row>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="F132" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9:32 am</v>
       </c>
     </row>
@@ -8794,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="F133" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1:02 am</v>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="F134" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1:32 am</v>
       </c>
     </row>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="F135" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1:02 am</v>
       </c>
     </row>
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="F136" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1:32 am</v>
       </c>
     </row>
@@ -8878,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1:02 pm</v>
       </c>
     </row>
@@ -8899,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1:32 pm</v>
       </c>
     </row>
@@ -8920,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1:02 pm</v>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1:32 pm</v>
       </c>
     </row>
@@ -8962,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2:02 pm</v>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2:32 pm</v>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3:02 pm</v>
       </c>
     </row>
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3:32 pm</v>
       </c>
     </row>
@@ -9046,7 +9046,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4:02 pm</v>
       </c>
     </row>
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5:02 pm</v>
       </c>
     </row>
@@ -9088,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5:32 pm</v>
       </c>
     </row>
@@ -9109,7 +9109,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6:04 pm</v>
       </c>
     </row>
@@ -9130,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6:34 pm</v>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7:04 pm</v>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7:34 pm</v>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8:04 pm</v>
       </c>
     </row>
@@ -9214,7 +9214,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8:34 pm</v>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9:04 pm</v>
       </c>
     </row>
@@ -9256,7 +9256,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9:34 pm</v>
       </c>
     </row>
@@ -9298,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="F157" s="1" t="str">
-        <f t="shared" ref="F157:F185" si="2" xml:space="preserve"> LEFT(D157, LEN(D157) - 2) &amp; ":" &amp; RIGHT(D157, 2) &amp; " " &amp; E157</f>
+        <f t="shared" ref="F157:F185" si="4" xml:space="preserve"> LEFT(D157, LEN(D157) - 2) &amp; ":" &amp; RIGHT(D157, 2) &amp; " " &amp; E157</f>
         <v>6:55 am</v>
       </c>
     </row>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="F158" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7:25 am</v>
       </c>
     </row>
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="F159" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7:55 am</v>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="F160" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8:25 am</v>
       </c>
     </row>
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="F161" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8:55 am</v>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="F162" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9:26 am</v>
       </c>
     </row>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="F163" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9:56 am</v>
       </c>
     </row>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="F164" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10:26 am</v>
       </c>
     </row>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="F165" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10:56 am</v>
       </c>
     </row>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="F166" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11:26 am</v>
       </c>
     </row>
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="F167" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11:56 am</v>
       </c>
     </row>
@@ -9529,7 +9529,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12:26 pm</v>
       </c>
     </row>
@@ -9550,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12:56 pm</v>
       </c>
     </row>
@@ -9571,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1:26 pm</v>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1:56 pm</v>
       </c>
     </row>
@@ -9613,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2:26 pm</v>
       </c>
     </row>
@@ -9634,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2:56 pm</v>
       </c>
     </row>
@@ -9655,7 +9655,7 @@
         <v>1</v>
       </c>
       <c r="F174" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3:26 pm</v>
       </c>
     </row>
@@ -9676,7 +9676,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3:56 pm</v>
       </c>
     </row>
@@ -9697,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4:56 pm</v>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5:26 pm</v>
       </c>
     </row>
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5:56 pm</v>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6:25 pm</v>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6:55 pm</v>
       </c>
     </row>
@@ -9802,7 +9802,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7:25 pm</v>
       </c>
     </row>
@@ -9823,7 +9823,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7:55 pm</v>
       </c>
     </row>
@@ -9844,7 +9844,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8:25 pm</v>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8:55 pm</v>
       </c>
     </row>
@@ -9886,7 +9886,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9:25 pm</v>
       </c>
     </row>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="F187" s="1" t="str">
-        <f t="shared" ref="F187:F211" si="3" xml:space="preserve"> LEFT(D187, LEN(D187) - 2) &amp; ":" &amp; RIGHT(D187, 2) &amp; " " &amp; E187</f>
+        <f t="shared" ref="F187:F211" si="5" xml:space="preserve"> LEFT(D187, LEN(D187) - 2) &amp; ":" &amp; RIGHT(D187, 2) &amp; " " &amp; E187</f>
         <v>8:04 am</v>
       </c>
     </row>
@@ -9949,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="F188" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8:34 am</v>
       </c>
     </row>
@@ -9970,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="F189" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9:02 am</v>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="F190" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9:32 am</v>
       </c>
     </row>
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="F191" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10:02 am</v>
       </c>
     </row>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="F192" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10:32 am</v>
       </c>
     </row>
@@ -10054,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11:02 am</v>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11:32 am</v>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12:02 pm</v>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12:32 pm</v>
       </c>
     </row>
@@ -10138,7 +10138,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1:02 pm</v>
       </c>
     </row>
@@ -10159,7 +10159,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1:32 pm</v>
       </c>
     </row>
@@ -10180,7 +10180,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2:02 pm</v>
       </c>
     </row>
@@ -10201,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2:32 pm</v>
       </c>
     </row>
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3:02 pm</v>
       </c>
     </row>
@@ -10243,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3:32 pm</v>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4:02 pm</v>
       </c>
     </row>
@@ -10285,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4:32 pm</v>
       </c>
     </row>
@@ -10306,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5:02 pm</v>
       </c>
     </row>
@@ -10327,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5:32 pm</v>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6:04 pm</v>
       </c>
     </row>
@@ -10369,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6:34 pm</v>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7:04 pm</v>
       </c>
     </row>
@@ -10411,7 +10411,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7:34 pm</v>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8:04 pm</v>
       </c>
     </row>
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="F213" s="1" t="str">
-        <f t="shared" ref="F213:F237" si="4" xml:space="preserve"> LEFT(D213, LEN(D213) - 2) &amp; ":" &amp; RIGHT(D213, 2) &amp; " " &amp; E213</f>
+        <f t="shared" ref="F213:F237" si="6" xml:space="preserve"> LEFT(D213, LEN(D213) - 2) &amp; ":" &amp; RIGHT(D213, 2) &amp; " " &amp; E213</f>
         <v>7:55 am</v>
       </c>
     </row>
@@ -10495,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="F214" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8:25 am</v>
       </c>
     </row>
@@ -10516,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="F215" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8:55 am</v>
       </c>
     </row>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="F216" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9:26 am</v>
       </c>
     </row>
@@ -10558,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="F217" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9:56 am</v>
       </c>
     </row>
@@ -10579,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="F218" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10:26 am</v>
       </c>
     </row>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="F219" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10:56 am</v>
       </c>
     </row>
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="F220" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11:56 am</v>
       </c>
     </row>
@@ -10642,7 +10642,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12:26 pm</v>
       </c>
     </row>
@@ -10663,7 +10663,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12:56 pm</v>
       </c>
     </row>
@@ -10684,7 +10684,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1:26 pm</v>
       </c>
     </row>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1:56 pm</v>
       </c>
     </row>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2:26 pm</v>
       </c>
     </row>
@@ -10747,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2:56 pm</v>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3:26 pm</v>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3:56 pm</v>
       </c>
     </row>
@@ -10810,7 +10810,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4:26 pm</v>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4:56 pm</v>
       </c>
     </row>
@@ -10852,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5:26 pm</v>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5:56 pm</v>
       </c>
     </row>
@@ -10894,7 +10894,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6:25 pm</v>
       </c>
     </row>
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6:55 pm</v>
       </c>
     </row>
@@ -10936,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7:25 pm</v>
       </c>
     </row>
@@ -10957,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7:55 pm</v>
       </c>
     </row>
@@ -10978,7 +10978,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8:25 pm</v>
       </c>
     </row>
